--- a/src/main/resource/resource/MonsterResource.xlsx
+++ b/src/main/resource/resource/MonsterResource.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A549DE-7799-4857-A8C9-FA0C3F7595B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5485122C-5C37-4886-949E-DA79F415E1D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3360" yWindow="1164" windowWidth="16116" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>MonsterResource</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落选择器ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -431,14 +443,15 @@
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="19.5546875" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -448,8 +461,11 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -462,8 +478,11 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -473,8 +492,11 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -487,8 +509,11 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1001</v>
       </c>
@@ -498,8 +523,11 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1002</v>
       </c>
@@ -509,8 +537,11 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -522,6 +553,9 @@
       </c>
       <c r="D8" t="s">
         <v>16</v>
+      </c>
+      <c r="E8">
+        <v>1003</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resource/resource/MonsterResource.xlsx
+++ b/src/main/resource/resource/MonsterResource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5485122C-5C37-4886-949E-DA79F415E1D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA43B00C-6F51-42D0-BAD9-F1AC2BC03A4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"MAX_HP":5000}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>End</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +103,10 @@
   </si>
   <si>
     <t>掉落选择器ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"MAX_HP":5000000}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +435,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -462,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -510,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -543,7 +543,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>1003</v>
@@ -552,7 +552,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1003</v>
